--- a/output/ejecucion_2/gridsearch_results/base0/b0_ci_results_gs_rf_s.xlsx
+++ b/output/ejecucion_2/gridsearch_results/base0/b0_ci_results_gs_rf_s.xlsx
@@ -561,16 +561,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>126.2704358577728</v>
+        <v>133.5669253349304</v>
       </c>
       <c r="C2">
-        <v>0.3950362987544744</v>
+        <v>2.102189625953029</v>
       </c>
       <c r="D2">
-        <v>0.4531722068786621</v>
+        <v>4.60434513092041</v>
       </c>
       <c r="E2">
-        <v>0.2238184342833102</v>
+        <v>0.7539898352158453</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -585,28 +585,28 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>0.8013468013468014</v>
+        <v>0.7957446808510639</v>
       </c>
       <c r="K2">
-        <v>0.8047138047138047</v>
+        <v>0.7574468085106383</v>
       </c>
       <c r="L2">
-        <v>0.8243243243243243</v>
+        <v>0.7957446808510639</v>
       </c>
       <c r="M2">
-        <v>0.8175675675675675</v>
+        <v>0.8127659574468085</v>
       </c>
       <c r="N2">
-        <v>0.8209459459459459</v>
+        <v>0.8162393162393162</v>
       </c>
       <c r="O2">
-        <v>0.8137796887796886</v>
+        <v>0.7955882887797781</v>
       </c>
       <c r="P2">
-        <v>0.009095708329412132</v>
+        <v>0.02086316692187444</v>
       </c>
       <c r="Q2">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -614,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>337.6164818286896</v>
+        <v>288.0998609542847</v>
       </c>
       <c r="C3">
-        <v>72.60775418767905</v>
+        <v>1.333278004339299</v>
       </c>
       <c r="D3">
-        <v>3.387837171554565</v>
+        <v>7.793178987503052</v>
       </c>
       <c r="E3">
-        <v>0.4748399984272308</v>
+        <v>0.966898334145484</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -638,28 +638,28 @@
         <v>17</v>
       </c>
       <c r="J3">
-        <v>0.797979797979798</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="K3">
-        <v>0.8013468013468014</v>
+        <v>0.7702127659574468</v>
       </c>
       <c r="L3">
-        <v>0.8277027027027027</v>
+        <v>0.7914893617021277</v>
       </c>
       <c r="M3">
-        <v>0.8108108108108109</v>
+        <v>0.8170212765957446</v>
       </c>
       <c r="N3">
-        <v>0.8108108108108109</v>
+        <v>0.811965811965812</v>
       </c>
       <c r="O3">
-        <v>0.8097301847301848</v>
+        <v>0.7998399709038007</v>
       </c>
       <c r="P3">
-        <v>0.01033150147327284</v>
+        <v>0.01711676199970148</v>
       </c>
       <c r="Q3">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -667,16 +667,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>577.2221880912781</v>
+        <v>579.0503921985626</v>
       </c>
       <c r="C4">
-        <v>66.44821980044659</v>
+        <v>3.224111882436993</v>
       </c>
       <c r="D4">
-        <v>7.876370048522949</v>
+        <v>7.532411813735962</v>
       </c>
       <c r="E4">
-        <v>1.008677181521855</v>
+        <v>0.2266450727802834</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -691,28 +691,28 @@
         <v>18</v>
       </c>
       <c r="J4">
-        <v>0.8080808080808081</v>
+        <v>0.8042553191489362</v>
       </c>
       <c r="K4">
-        <v>0.8047138047138047</v>
+        <v>0.7489361702127659</v>
       </c>
       <c r="L4">
-        <v>0.8277027027027027</v>
+        <v>0.7914893617021277</v>
       </c>
       <c r="M4">
-        <v>0.8175675675675675</v>
+        <v>0.8127659574468085</v>
       </c>
       <c r="N4">
-        <v>0.8108108108108109</v>
+        <v>0.8290598290598291</v>
       </c>
       <c r="O4">
-        <v>0.8137751387751389</v>
+        <v>0.7973013275140934</v>
       </c>
       <c r="P4">
-        <v>0.008144691159394687</v>
+        <v>0.02708904792134783</v>
       </c>
       <c r="Q4">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -720,16 +720,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>300.6584857940674</v>
+        <v>223.0759564876556</v>
       </c>
       <c r="C5">
-        <v>7.117586767307469</v>
+        <v>6.568403723895949</v>
       </c>
       <c r="D5">
-        <v>6.406627082824707</v>
+        <v>8.657705640792846</v>
       </c>
       <c r="E5">
-        <v>1.466290627336043</v>
+        <v>1.106310547369591</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -744,28 +744,28 @@
         <v>19</v>
       </c>
       <c r="J5">
-        <v>0.7912457912457912</v>
+        <v>0.774468085106383</v>
       </c>
       <c r="K5">
-        <v>0.8114478114478114</v>
+        <v>0.7404255319148936</v>
       </c>
       <c r="L5">
-        <v>0.8141891891891891</v>
+        <v>0.774468085106383</v>
       </c>
       <c r="M5">
-        <v>0.8040540540540541</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="N5">
-        <v>0.8108108108108109</v>
+        <v>0.8247863247863247</v>
       </c>
       <c r="O5">
-        <v>0.8063495313495312</v>
+        <v>0.7845317330423713</v>
       </c>
       <c r="P5">
-        <v>0.008255275774563092</v>
+        <v>0.02947314388110376</v>
       </c>
       <c r="Q5">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,16 +773,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>589.4273972511292</v>
+        <v>430.2435269355774</v>
       </c>
       <c r="C6">
-        <v>1.961128016058781</v>
+        <v>2.602463663091449</v>
       </c>
       <c r="D6">
-        <v>6.351407718658447</v>
+        <v>8.83856897354126</v>
       </c>
       <c r="E6">
-        <v>1.220985196923061</v>
+        <v>1.656357854239701</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -797,28 +797,28 @@
         <v>20</v>
       </c>
       <c r="J6">
-        <v>0.8013468013468014</v>
+        <v>0.7957446808510639</v>
       </c>
       <c r="K6">
-        <v>0.797979797979798</v>
+        <v>0.7702127659574468</v>
       </c>
       <c r="L6">
-        <v>0.8209459459459459</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="M6">
-        <v>0.8040540540540541</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="N6">
-        <v>0.8006756756756757</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="O6">
-        <v>0.805000455000455</v>
+        <v>0.7964429896344789</v>
       </c>
       <c r="P6">
-        <v>0.008203619719059117</v>
+        <v>0.01731070118987181</v>
       </c>
       <c r="Q6">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,16 +826,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1174.397476148605</v>
+        <v>867.917186832428</v>
       </c>
       <c r="C7">
-        <v>3.885252715097902</v>
+        <v>11.17663324607778</v>
       </c>
       <c r="D7">
-        <v>8.52536358833313</v>
+        <v>7.869334506988525</v>
       </c>
       <c r="E7">
-        <v>0.5948738049239686</v>
+        <v>2.245167477225039</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -850,28 +850,28 @@
         <v>21</v>
       </c>
       <c r="J7">
-        <v>0.8013468013468014</v>
+        <v>0.7957446808510639</v>
       </c>
       <c r="K7">
-        <v>0.797979797979798</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L7">
-        <v>0.8243243243243243</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="M7">
-        <v>0.8108108108108109</v>
+        <v>0.825531914893617</v>
       </c>
       <c r="N7">
-        <v>0.8108108108108109</v>
+        <v>0.8247863247863247</v>
       </c>
       <c r="O7">
-        <v>0.8090545090545092</v>
+        <v>0.7998508819785416</v>
       </c>
       <c r="P7">
-        <v>0.009180353300265145</v>
+        <v>0.02283025287645702</v>
       </c>
       <c r="Q7">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,16 +879,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>401.1338713645935</v>
+        <v>300.697031211853</v>
       </c>
       <c r="C8">
-        <v>2.208938404084027</v>
+        <v>4.113072760446863</v>
       </c>
       <c r="D8">
-        <v>8.014546632766724</v>
+        <v>7.300359058380127</v>
       </c>
       <c r="E8">
-        <v>0.6041554630276949</v>
+        <v>2.073971046573835</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -903,28 +903,28 @@
         <v>22</v>
       </c>
       <c r="J8">
-        <v>0.8013468013468014</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="K8">
-        <v>0.797979797979798</v>
+        <v>0.7404255319148936</v>
       </c>
       <c r="L8">
-        <v>0.8141891891891891</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="M8">
-        <v>0.8074324324324325</v>
+        <v>0.8</v>
       </c>
       <c r="N8">
-        <v>0.8040540540540541</v>
+        <v>0.8162393162393162</v>
       </c>
       <c r="O8">
-        <v>0.805000455000455</v>
+        <v>0.7862265866521184</v>
       </c>
       <c r="P8">
-        <v>0.005547645176014141</v>
+        <v>0.02525960174806144</v>
       </c>
       <c r="Q8">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,16 +932,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>776.2923430919648</v>
+        <v>579.7781576633454</v>
       </c>
       <c r="C9">
-        <v>2.568723162802191</v>
+        <v>2.655414499446095</v>
       </c>
       <c r="D9">
-        <v>8.5454176902771</v>
+        <v>6.76099967956543</v>
       </c>
       <c r="E9">
-        <v>0.4499822039430759</v>
+        <v>1.931330525780702</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -956,28 +956,28 @@
         <v>23</v>
       </c>
       <c r="J9">
-        <v>0.8013468013468014</v>
+        <v>0.7957446808510639</v>
       </c>
       <c r="K9">
-        <v>0.8080808080808081</v>
+        <v>0.7574468085106383</v>
       </c>
       <c r="L9">
-        <v>0.8108108108108109</v>
+        <v>0.7957446808510639</v>
       </c>
       <c r="M9">
-        <v>0.8108108108108109</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="N9">
-        <v>0.8175675675675675</v>
+        <v>0.8162393162393162</v>
       </c>
       <c r="O9">
-        <v>0.8097233597233597</v>
+        <v>0.794737224949991</v>
       </c>
       <c r="P9">
-        <v>0.0052299407754327</v>
+        <v>0.02022202728744886</v>
       </c>
       <c r="Q9">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,16 +985,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1536.136173677445</v>
+        <v>1134.632877635956</v>
       </c>
       <c r="C10">
-        <v>10.24593119720934</v>
+        <v>15.07467590727155</v>
       </c>
       <c r="D10">
-        <v>8.669757509231568</v>
+        <v>9.19609613418579</v>
       </c>
       <c r="E10">
-        <v>0.4964056016138588</v>
+        <v>1.341601517615061</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1009,28 +1009,28 @@
         <v>24</v>
       </c>
       <c r="J10">
-        <v>0.7912457912457912</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="K10">
-        <v>0.797979797979798</v>
+        <v>0.7617021276595745</v>
       </c>
       <c r="L10">
-        <v>0.8040540540540541</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="M10">
-        <v>0.8074324324324325</v>
+        <v>0.8170212765957446</v>
       </c>
       <c r="N10">
-        <v>0.8141891891891891</v>
+        <v>0.8162393162393162</v>
       </c>
       <c r="O10">
-        <v>0.8029802529802529</v>
+        <v>0.7938861611202036</v>
       </c>
       <c r="P10">
-        <v>0.007865333355499037</v>
+        <v>0.0207808107854328</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1038,16 +1038,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>264.548832988739</v>
+        <v>188.8344991207123</v>
       </c>
       <c r="C11">
-        <v>0.8996459766131111</v>
+        <v>0.6944762707062566</v>
       </c>
       <c r="D11">
-        <v>8.021208238601684</v>
+        <v>7.749664497375488</v>
       </c>
       <c r="E11">
-        <v>0.5088944869363482</v>
+        <v>0.7316654203119244</v>
       </c>
       <c r="F11">
         <v>20</v>
@@ -1062,28 +1062,28 @@
         <v>25</v>
       </c>
       <c r="J11">
-        <v>0.835016835016835</v>
+        <v>0.774468085106383</v>
       </c>
       <c r="K11">
-        <v>0.797979797979798</v>
+        <v>0.7531914893617021</v>
       </c>
       <c r="L11">
-        <v>0.8209459459459459</v>
+        <v>0.7829787234042553</v>
       </c>
       <c r="M11">
-        <v>0.8108108108108109</v>
+        <v>0.7957446808510639</v>
       </c>
       <c r="N11">
-        <v>0.8074324324324325</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="O11">
-        <v>0.8144371644371645</v>
+        <v>0.7802509547190397</v>
       </c>
       <c r="P11">
-        <v>0.01264079664966056</v>
+        <v>0.01566474694726072</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,16 +1091,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>515.8181121349335</v>
+        <v>361.9018931865692</v>
       </c>
       <c r="C12">
-        <v>8.381546226304819</v>
+        <v>7.199367501237866</v>
       </c>
       <c r="D12">
-        <v>8.573926496505738</v>
+        <v>8.111456966400146</v>
       </c>
       <c r="E12">
-        <v>0.5473596422236001</v>
+        <v>1.102692462060435</v>
       </c>
       <c r="F12">
         <v>20</v>
@@ -1115,28 +1115,28 @@
         <v>26</v>
       </c>
       <c r="J12">
-        <v>0.8282828282828283</v>
+        <v>0.8</v>
       </c>
       <c r="K12">
-        <v>0.8047138047138047</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L12">
-        <v>0.831081081081081</v>
+        <v>0.7914893617021277</v>
       </c>
       <c r="M12">
-        <v>0.8243243243243243</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="N12">
-        <v>0.8141891891891891</v>
+        <v>0.8034188034188035</v>
       </c>
       <c r="O12">
-        <v>0.8205182455182456</v>
+        <v>0.7896199308965267</v>
       </c>
       <c r="P12">
-        <v>0.009758952604363675</v>
+        <v>0.0231431597295988</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1144,16 +1144,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1017.866109371185</v>
+        <v>697.0370300292968</v>
       </c>
       <c r="C13">
-        <v>5.956706958732451</v>
+        <v>9.79487665120722</v>
       </c>
       <c r="D13">
-        <v>8.230070352554321</v>
+        <v>8.774868822097778</v>
       </c>
       <c r="E13">
-        <v>0.7837781028907117</v>
+        <v>1.449611552756828</v>
       </c>
       <c r="F13">
         <v>20</v>
@@ -1168,28 +1168,28 @@
         <v>27</v>
       </c>
       <c r="J13">
-        <v>0.8249158249158249</v>
+        <v>0.8</v>
       </c>
       <c r="K13">
-        <v>0.8080808080808081</v>
+        <v>0.7574468085106383</v>
       </c>
       <c r="L13">
-        <v>0.8209459459459459</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="M13">
-        <v>0.8243243243243243</v>
+        <v>0.8127659574468085</v>
       </c>
       <c r="N13">
-        <v>0.8175675675675675</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="O13">
-        <v>0.8191668941668941</v>
+        <v>0.7930278232405892</v>
       </c>
       <c r="P13">
-        <v>0.006136342006386944</v>
+        <v>0.01976273664657065</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1197,16 +1197,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>388.4266181468964</v>
+        <v>268.9112576007843</v>
       </c>
       <c r="C14">
-        <v>6.603707121422066</v>
+        <v>5.113291068724678</v>
       </c>
       <c r="D14">
-        <v>8.054714345932007</v>
+        <v>8.046946096420289</v>
       </c>
       <c r="E14">
-        <v>0.7050501921447654</v>
+        <v>1.580751037268071</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -1221,28 +1221,28 @@
         <v>28</v>
       </c>
       <c r="J14">
-        <v>0.8047138047138047</v>
+        <v>0.8042553191489362</v>
       </c>
       <c r="K14">
-        <v>0.8114478114478114</v>
+        <v>0.7574468085106383</v>
       </c>
       <c r="L14">
-        <v>0.831081081081081</v>
+        <v>0.7702127659574468</v>
       </c>
       <c r="M14">
-        <v>0.8277027027027027</v>
+        <v>0.7957446808510639</v>
       </c>
       <c r="N14">
-        <v>0.8108108108108109</v>
+        <v>0.8162393162393162</v>
       </c>
       <c r="O14">
-        <v>0.8171512421512421</v>
+        <v>0.7887797781414803</v>
       </c>
       <c r="P14">
-        <v>0.0103227300048196</v>
+        <v>0.02176473018028587</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1250,16 +1250,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>759.3797394275665</v>
+        <v>517.5914548397064</v>
       </c>
       <c r="C15">
-        <v>6.622893995139013</v>
+        <v>3.666730414211965</v>
       </c>
       <c r="D15">
-        <v>8.561056852340698</v>
+        <v>7.046298980712891</v>
       </c>
       <c r="E15">
-        <v>0.5536808650202556</v>
+        <v>1.509295629862604</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -1274,28 +1274,28 @@
         <v>29</v>
       </c>
       <c r="J15">
-        <v>0.8114478114478114</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="K15">
-        <v>0.8013468013468014</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L15">
-        <v>0.831081081081081</v>
+        <v>0.7914893617021277</v>
       </c>
       <c r="M15">
-        <v>0.8344594594594594</v>
+        <v>0.8170212765957446</v>
       </c>
       <c r="N15">
-        <v>0.8243243243243243</v>
+        <v>0.811965811965812</v>
       </c>
       <c r="O15">
-        <v>0.8205318955318956</v>
+        <v>0.7989889070740134</v>
       </c>
       <c r="P15">
-        <v>0.01241155341922042</v>
+        <v>0.01860940796852451</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1303,16 +1303,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1520.954884767532</v>
+        <v>1029.275282430649</v>
       </c>
       <c r="C16">
-        <v>17.35731121714721</v>
+        <v>16.36855418618837</v>
       </c>
       <c r="D16">
-        <v>9.542208051681518</v>
+        <v>10.3952305316925</v>
       </c>
       <c r="E16">
-        <v>0.2186252177472542</v>
+        <v>0.07699493229347727</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -1327,28 +1327,28 @@
         <v>30</v>
       </c>
       <c r="J16">
-        <v>0.8215488215488216</v>
+        <v>0.8042553191489362</v>
       </c>
       <c r="K16">
-        <v>0.8047138047138047</v>
+        <v>0.7702127659574468</v>
       </c>
       <c r="L16">
-        <v>0.8209459459459459</v>
+        <v>0.7787234042553192</v>
       </c>
       <c r="M16">
-        <v>0.8344594594594594</v>
+        <v>0.8127659574468085</v>
       </c>
       <c r="N16">
-        <v>0.8141891891891891</v>
+        <v>0.8034188034188035</v>
       </c>
       <c r="O16">
-        <v>0.8191714441714442</v>
+        <v>0.7938752500454628</v>
       </c>
       <c r="P16">
-        <v>0.009760844170296568</v>
+        <v>0.01640229042402215</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1356,16 +1356,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>517.8479607105255</v>
+        <v>351.6892240524292</v>
       </c>
       <c r="C17">
-        <v>8.308243154298017</v>
+        <v>8.060644967302508</v>
       </c>
       <c r="D17">
-        <v>8.941591024398804</v>
+        <v>7.602120113372803</v>
       </c>
       <c r="E17">
-        <v>0.3884217321810822</v>
+        <v>0.6699264685410777</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -1380,28 +1380,28 @@
         <v>31</v>
       </c>
       <c r="J17">
-        <v>0.8181818181818182</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="K17">
-        <v>0.8148148148148148</v>
+        <v>0.7319148936170212</v>
       </c>
       <c r="L17">
-        <v>0.8445945945945946</v>
+        <v>0.7914893617021277</v>
       </c>
       <c r="M17">
-        <v>0.8243243243243243</v>
+        <v>0.8127659574468085</v>
       </c>
       <c r="N17">
-        <v>0.8074324324324325</v>
+        <v>0.7991452991452992</v>
       </c>
       <c r="O17">
-        <v>0.8218695968695968</v>
+        <v>0.7845099108928896</v>
       </c>
       <c r="P17">
-        <v>0.01260359144811018</v>
+        <v>0.02769465011624492</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1409,16 +1409,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1003.153697681427</v>
+        <v>680.8393609046936</v>
       </c>
       <c r="C18">
-        <v>9.81793821797155</v>
+        <v>7.891392970908876</v>
       </c>
       <c r="D18">
-        <v>8.831092405319215</v>
+        <v>9.556873941421509</v>
       </c>
       <c r="E18">
-        <v>0.3065876152456416</v>
+        <v>0.4463842428669238</v>
       </c>
       <c r="F18">
         <v>20</v>
@@ -1433,28 +1433,28 @@
         <v>32</v>
       </c>
       <c r="J18">
-        <v>0.8249158249158249</v>
+        <v>0.7957446808510639</v>
       </c>
       <c r="K18">
-        <v>0.8114478114478114</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L18">
-        <v>0.831081081081081</v>
+        <v>0.7829787234042553</v>
       </c>
       <c r="M18">
-        <v>0.8277027027027027</v>
+        <v>0.8127659574468085</v>
       </c>
       <c r="N18">
-        <v>0.8141891891891891</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="O18">
-        <v>0.8218673218673219</v>
+        <v>0.7862084015275504</v>
       </c>
       <c r="P18">
-        <v>0.007691011870815063</v>
+        <v>0.0228309748029936</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1462,16 +1462,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1975.877160930634</v>
+        <v>1345.201378917694</v>
       </c>
       <c r="C19">
-        <v>22.0046983190387</v>
+        <v>21.08337902254821</v>
       </c>
       <c r="D19">
-        <v>8.867616891860962</v>
+        <v>9.721734189987183</v>
       </c>
       <c r="E19">
-        <v>0.5761097620517497</v>
+        <v>0.54442140419944</v>
       </c>
       <c r="F19">
         <v>20</v>
@@ -1486,28 +1486,28 @@
         <v>33</v>
       </c>
       <c r="J19">
-        <v>0.8148148148148148</v>
+        <v>0.7957446808510639</v>
       </c>
       <c r="K19">
-        <v>0.8114478114478114</v>
+        <v>0.7531914893617021</v>
       </c>
       <c r="L19">
-        <v>0.8344594594594594</v>
+        <v>0.7787234042553192</v>
       </c>
       <c r="M19">
-        <v>0.8209459459459459</v>
+        <v>0.7914893617021277</v>
       </c>
       <c r="N19">
-        <v>0.8141891891891891</v>
+        <v>0.7991452991452992</v>
       </c>
       <c r="O19">
-        <v>0.8191714441714442</v>
+        <v>0.7836588470631025</v>
       </c>
       <c r="P19">
-        <v>0.008250210354931795</v>
+        <v>0.01673220258645211</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1515,16 +1515,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>270.8946699142456</v>
+        <v>187.3254591464996</v>
       </c>
       <c r="C20">
-        <v>2.996691846520535</v>
+        <v>1.914498523828772</v>
       </c>
       <c r="D20">
-        <v>8.316593074798584</v>
+        <v>10.13014254570007</v>
       </c>
       <c r="E20">
-        <v>0.5855670761053751</v>
+        <v>0.1113961725304318</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -1539,28 +1539,28 @@
         <v>34</v>
       </c>
       <c r="J20">
-        <v>0.8215488215488216</v>
+        <v>0.774468085106383</v>
       </c>
       <c r="K20">
-        <v>0.797979797979798</v>
+        <v>0.7702127659574468</v>
       </c>
       <c r="L20">
-        <v>0.8108108108108109</v>
+        <v>0.7914893617021277</v>
       </c>
       <c r="M20">
-        <v>0.8108108108108109</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="N20">
-        <v>0.8040540540540541</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="O20">
-        <v>0.8090408590408591</v>
+        <v>0.7879105291871249</v>
       </c>
       <c r="P20">
-        <v>0.00787311730395847</v>
+        <v>0.01399672735803138</v>
       </c>
       <c r="Q20">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1568,16 +1568,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>523.7969302654267</v>
+        <v>363.2038001537323</v>
       </c>
       <c r="C21">
-        <v>18.67521591572947</v>
+        <v>7.680289501665605</v>
       </c>
       <c r="D21">
-        <v>9.026679706573486</v>
+        <v>9.381117057800292</v>
       </c>
       <c r="E21">
-        <v>0.1207502705144733</v>
+        <v>0.605959214158762</v>
       </c>
       <c r="F21">
         <v>30</v>
@@ -1592,28 +1592,28 @@
         <v>35</v>
       </c>
       <c r="J21">
-        <v>0.8215488215488216</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="K21">
-        <v>0.8013468013468014</v>
+        <v>0.7489361702127659</v>
       </c>
       <c r="L21">
-        <v>0.8209459459459459</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="M21">
-        <v>0.8277027027027027</v>
+        <v>0.7957446808510639</v>
       </c>
       <c r="N21">
-        <v>0.8209459459459459</v>
+        <v>0.8034188034188035</v>
       </c>
       <c r="O21">
-        <v>0.8184980434980436</v>
+        <v>0.7887688670667394</v>
       </c>
       <c r="P21">
-        <v>0.00894631273663587</v>
+        <v>0.02117554990720865</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1621,16 +1621,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>996.2744326114655</v>
+        <v>692.346752166748</v>
       </c>
       <c r="C22">
-        <v>10.67048826224842</v>
+        <v>14.59824473553206</v>
       </c>
       <c r="D22">
-        <v>9.193474960327148</v>
+        <v>9.558175516128539</v>
       </c>
       <c r="E22">
-        <v>0.6029818872266748</v>
+        <v>0.6251825138050919</v>
       </c>
       <c r="F22">
         <v>30</v>
@@ -1645,28 +1645,28 @@
         <v>36</v>
       </c>
       <c r="J22">
-        <v>0.8181818181818182</v>
+        <v>0.8042553191489362</v>
       </c>
       <c r="K22">
-        <v>0.8114478114478114</v>
+        <v>0.7574468085106383</v>
       </c>
       <c r="L22">
-        <v>0.8243243243243243</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="M22">
-        <v>0.8175675675675675</v>
+        <v>0.8170212765957446</v>
       </c>
       <c r="N22">
-        <v>0.8209459459459459</v>
+        <v>0.811965811965812</v>
       </c>
       <c r="O22">
-        <v>0.8184934934934935</v>
+        <v>0.7955846517548645</v>
       </c>
       <c r="P22">
-        <v>0.004256976086810074</v>
+        <v>0.02157442712492836</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1674,16 +1674,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>382.8720303535462</v>
+        <v>265.4857197284699</v>
       </c>
       <c r="C23">
-        <v>6.282203744886425</v>
+        <v>3.982128731536497</v>
       </c>
       <c r="D23">
-        <v>7.685512161254882</v>
+        <v>9.235442638397217</v>
       </c>
       <c r="E23">
-        <v>0.4617376334049102</v>
+        <v>0.6761144494111035</v>
       </c>
       <c r="F23">
         <v>30</v>
@@ -1698,28 +1698,28 @@
         <v>37</v>
       </c>
       <c r="J23">
-        <v>0.8114478114478114</v>
+        <v>0.7914893617021277</v>
       </c>
       <c r="K23">
-        <v>0.8013468013468014</v>
+        <v>0.7574468085106383</v>
       </c>
       <c r="L23">
-        <v>0.831081081081081</v>
+        <v>0.7787234042553192</v>
       </c>
       <c r="M23">
-        <v>0.8277027027027027</v>
+        <v>0.8</v>
       </c>
       <c r="N23">
-        <v>0.8108108108108109</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="O23">
-        <v>0.8164778414778414</v>
+        <v>0.7896344789961811</v>
       </c>
       <c r="P23">
-        <v>0.01118585652114521</v>
+        <v>0.02106871744382276</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1727,16 +1727,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>753.046391248703</v>
+        <v>515.4571520328522</v>
       </c>
       <c r="C24">
-        <v>8.520079646732603</v>
+        <v>6.049378208914405</v>
       </c>
       <c r="D24">
-        <v>8.960877513885498</v>
+        <v>9.266436386108399</v>
       </c>
       <c r="E24">
-        <v>0.4673666887804492</v>
+        <v>0.6284577325294968</v>
       </c>
       <c r="F24">
         <v>30</v>
@@ -1751,28 +1751,28 @@
         <v>38</v>
       </c>
       <c r="J24">
-        <v>0.8114478114478114</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="K24">
-        <v>0.797979797979798</v>
+        <v>0.7702127659574468</v>
       </c>
       <c r="L24">
-        <v>0.8344594594594594</v>
+        <v>0.7914893617021277</v>
       </c>
       <c r="M24">
-        <v>0.831081081081081</v>
+        <v>0.8127659574468085</v>
       </c>
       <c r="N24">
-        <v>0.8175675675675675</v>
+        <v>0.811965811965812</v>
       </c>
       <c r="O24">
-        <v>0.8185071435071436</v>
+        <v>0.7989889070740134</v>
       </c>
       <c r="P24">
-        <v>0.01330164784397005</v>
+        <v>0.01632899275148503</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1780,16 +1780,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1503.499399614334</v>
+        <v>1033.203410863876</v>
       </c>
       <c r="C25">
-        <v>17.8376437807749</v>
+        <v>12.16794247865015</v>
       </c>
       <c r="D25">
-        <v>9.199611282348632</v>
+        <v>8.968172454833985</v>
       </c>
       <c r="E25">
-        <v>0.5364168427007906</v>
+        <v>1.539453495527461</v>
       </c>
       <c r="F25">
         <v>30</v>
@@ -1804,28 +1804,28 @@
         <v>39</v>
       </c>
       <c r="J25">
-        <v>0.835016835016835</v>
+        <v>0.8</v>
       </c>
       <c r="K25">
-        <v>0.797979797979798</v>
+        <v>0.7702127659574468</v>
       </c>
       <c r="L25">
-        <v>0.8277027027027027</v>
+        <v>0.7787234042553192</v>
       </c>
       <c r="M25">
-        <v>0.8344594594594594</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="N25">
-        <v>0.8074324324324325</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="O25">
-        <v>0.8205182455182456</v>
+        <v>0.7930278232405893</v>
       </c>
       <c r="P25">
-        <v>0.01506919433943827</v>
+        <v>0.01567494278417894</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1833,16 +1833,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>514.1384165287018</v>
+        <v>352.7620289325714</v>
       </c>
       <c r="C26">
-        <v>8.788874463902779</v>
+        <v>5.896399306631528</v>
       </c>
       <c r="D26">
-        <v>8.75084400177002</v>
+        <v>8.931545639038086</v>
       </c>
       <c r="E26">
-        <v>0.3778370899984676</v>
+        <v>0.9385203976510025</v>
       </c>
       <c r="F26">
         <v>30</v>
@@ -1857,28 +1857,28 @@
         <v>40</v>
       </c>
       <c r="J26">
-        <v>0.8249158249158249</v>
+        <v>0.7914893617021277</v>
       </c>
       <c r="K26">
-        <v>0.8148148148148148</v>
+        <v>0.7404255319148936</v>
       </c>
       <c r="L26">
-        <v>0.8378378378378378</v>
+        <v>0.7914893617021277</v>
       </c>
       <c r="M26">
-        <v>0.8175675675675675</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="N26">
-        <v>0.8040540540540541</v>
+        <v>0.7991452991452992</v>
       </c>
       <c r="O26">
-        <v>0.8198380198380197</v>
+        <v>0.786212038552464</v>
       </c>
       <c r="P26">
-        <v>0.01121872248093973</v>
+        <v>0.02373436853801819</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1886,16 +1886,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>997.0044717788696</v>
+        <v>686.7826358318329</v>
       </c>
       <c r="C27">
-        <v>12.29200158215325</v>
+        <v>8.20601558146795</v>
       </c>
       <c r="D27">
-        <v>8.368457603454591</v>
+        <v>6.749311876296997</v>
       </c>
       <c r="E27">
-        <v>1.184701193830892</v>
+        <v>1.821399314147571</v>
       </c>
       <c r="F27">
         <v>30</v>
@@ -1910,28 +1910,28 @@
         <v>41</v>
       </c>
       <c r="J27">
-        <v>0.8249158249158249</v>
+        <v>0.7829787234042553</v>
       </c>
       <c r="K27">
-        <v>0.8215488215488216</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L27">
-        <v>0.8412162162162162</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="M27">
-        <v>0.831081081081081</v>
+        <v>0.8</v>
       </c>
       <c r="N27">
-        <v>0.8141891891891891</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="O27">
-        <v>0.8265902265902266</v>
+        <v>0.7845171849427167</v>
       </c>
       <c r="P27">
-        <v>0.009122417015004922</v>
+        <v>0.02178754484859515</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1939,16 +1939,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1363.559401798248</v>
+        <v>928.3822774887085</v>
       </c>
       <c r="C28">
-        <v>202.1159212467548</v>
+        <v>151.7891406544535</v>
       </c>
       <c r="D28">
-        <v>2.623446416854859</v>
+        <v>2.413512802124024</v>
       </c>
       <c r="E28">
-        <v>1.748430854619987</v>
+        <v>1.622801743783197</v>
       </c>
       <c r="F28">
         <v>30</v>
@@ -1963,28 +1963,28 @@
         <v>42</v>
       </c>
       <c r="J28">
-        <v>0.8148148148148148</v>
+        <v>0.7914893617021277</v>
       </c>
       <c r="K28">
-        <v>0.8114478114478114</v>
+        <v>0.7574468085106383</v>
       </c>
       <c r="L28">
-        <v>0.8344594594594594</v>
+        <v>0.7787234042553192</v>
       </c>
       <c r="M28">
-        <v>0.831081081081081</v>
+        <v>0.7914893617021277</v>
       </c>
       <c r="N28">
-        <v>0.8175675675675675</v>
+        <v>0.8034188034188035</v>
       </c>
       <c r="O28">
-        <v>0.8218741468741471</v>
+        <v>0.7845135479178034</v>
       </c>
       <c r="P28">
-        <v>0.009167845932726728</v>
+        <v>0.01562604740318435</v>
       </c>
       <c r="Q28">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
